--- a/Checlist.xlsx
+++ b/Checlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>Checlist</t>
   </si>
@@ -129,13 +129,19 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False </t>
+  </si>
+  <si>
+    <t>Сколь бы я ключей не сгенерила всегда выдает ошибку 401 Invalid API key.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +173,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -236,77 +250,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,13 +684,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
@@ -603,474 +698,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F26" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>21</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+  <mergeCells count="33">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="J5:P5"/>
     <mergeCell ref="H17:M17"/>
@@ -1079,25 +1195,20 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>